--- a/500all/speech_level/speeches_CHRG-114hhrg95991.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95991.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. This committee will come to order.    Chairman Royce, I welcome the opportunity to convene this subcommittee hearing with you today on Property Rights and Development in Southeast Asia.    I always enjoy coming to California, and the Cal Poly Pomona campus is truly a beautiful backdrop.    Mr. Chairman, you are very lucky to represent such a beautiful piece of our country, and I would like to thank our distinguished witnesses for their participation in the hearing.    Today I look forward to hearing about the progress that Southeast Asian countries have made in developing rule of law and protections for property rights. Given varying structures of governance and levels of development among Southeast Asian countries, we know that large challenges remain for countries, for individuals, and for businesses. I hope to learn more about these obstacles as well.    We are concerned about the abuse of power and gross violations of property rights in Cambodia. Private property rights were greatly impaired under the Khmer Rouge, though Cambodian law does not recognize private, state, and collective ownership by private individuals and indigenous communities.    Despite this, land-grabbing by the government for their political cronies and businesses has escalated significantly over the years. Up to \\1/2\\ million Cambodians have been reported to be displaced by forced land seizures. Poor and vulnerable populations have been identified as most harmed by forced evictions and lack of compensation for their land. Due to high court costs and lack of resources for many of those adversely affected, many disputes never make it to court. Those that do, end up facing an ineffective system to seek redress for violations and unfair treatment.    I know that USAID has funded programs to train lawyers and judges and support NGOs with legal aid and property rights education, and the World Bank and other donors have funded similar projects. I welcome additional solutions to the tragic condition of property rights in Cambodia.    The Philippines' 1987 constitution includes many provisions which protect private property rights, and efforts have been made to protect landowners from squatters and unfair land takings. The Philippine Government has attempted the execution of land reform programs for many years, with varying degrees of success and failure.    Despite efforts, much of the vulnerable rural population of the Philippines remain landless, and the population living in informal settlements with no enforceable legal basis to their claims continues to grow. Inconsistencies in Philippine land and property policies, exacerbated by a weak legal system and political or business interference, have stoked competition over land ownership claims and privileges. Overlapping or fraudulent land titles can fuel conflict, contribute greatly to instances of squatting or land grabbing, and hinder greater economic development.    A tradition of government corruption in the Philippines has made these issues harder to address. USAID and other international organizations and NGOs have worked to improve the land rights in the Philippines, such as supporting the development of the Residential Free Patent Act of 2010 that streamlines titling of residential lands. These efforts advance governance and advocacy for the Filipino population and help those without a voice.    Similarly, I look to our distinguished witnesses for insight on how we can catalyze more positive momentum in the Philippines. Land grabbing and insufficient protection of property rights exists elsewhere in Southeast Asia, and I welcome discussion about efforts to address issues in other countries as well. For instance, in Burma, citizens and organizations cannot own any land, since it all belongs to the state. Forcible and uncompensated land confiscation is rampant in Burma, and its drive for economic growth has stifled progress on the issue. I would be interested to hear from the State Department and USAID on what work we have done in Burma to aid in reversing this injustice.    Similarly in Indonesia, property rights are inconsistent, and the land rights of the vulnerable and the poor are insecure. Capacity to interpret laws fairly and unambiguously is limited. In Vietnam and Laos, the land, as they say, belongs to all, but it is administered poorly and inefficiently. Here, Thailand has been a model for Southeast Asian nations, boasting a transparent land administration system that has issued title deeds to much of the population.    The United States strives to be a voice of reason and to help galvanize necessary reform throughout the region. We will seek to promote and protect fundamental rights that are inconsistently enforced and poorly upheld in Southeast Asia. Furthermore, we will work with our allies to encourage the development of transparent, enforceable, and equitable laws that will benefit all members of these diverse countries.    Members present will be permitted to submit written statements to be included in the official hearing record. And without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    I now yield to Chairman Royce for his opening statement.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Mr. Salmon.    I think we should start by thanking Cal Poly Pomona for opening up this hall to so many people here today. We had an opportunity not too long ago to have the director of USAID out here in this very hall, and Cal Poly Pomona gave us a forum to talk about the challenges about rebuilding after Tacloban, and specifically about legislation that this committee, my committee had passed that I had authored that allowed aid to go immediately, and food to be purchased locally with respect to our USAID efforts in the Philippines.    But today I am particularly appreciative of my colleagues here from Congress, and the State Department and USAID being here again. Director Shaw I thought did a great job. We had a town hall meeting here last time. This time we are doing this in the form of a hearing in order to get into an issue that I think is very, very important, and that is what can we do to help change this phenomenon of land grabbing and the dislocation of people that are being pushed off of their land by government policy around the world, and specifically some of the new programs that USAID is championing in the Philippines and elsewhere in order to achieve this goal.    I did want to mention my wife Marie used to be a professor here at Cal Poly Pomona, so I have had the opportunity to be up on the campus a number of times for international programs. But in this case, we are looking at how we can best promote not just the rights of people in parts of the Philippines right now where, because of the Marcos legacy, they do not really have a tradition of land title. This was one of the things that President Aquino was trying to change and is trying to change. But locally, as you go into certain parts of the Philippines, Marcos' practices of seizing land and transferring that land into the hands of people who are well connected locally, has created an environment where, you can see by the concern of the community here, you can see that people, frankly, are losing their property.    Land title reform is a big part of the solution here, and that is what we are going to talk about today, and we are going to hear from witnesses.    We had had some successes, but as we aim, frankly, to deepen our engagement in Southeast Asia and transform our aid so that it supports sustainable economic growth, we have got to consider whether the underlying conditions exist to realize that growth. In countries where citizens are denied basic protections under the law, including the right to secure property and the right to basically have title, those conditions don't exist.    So if I could just speak to Cambodia for a minute, Chairman Salmon, over half of land holdings are held informally there, without legal title. It would help enormously if we could put into effect a change that would give land title to those who are farming that land, because as the Cambodian economy has developed, many Cambodians have been displaced by the Hun Sen government. The government and domestic and foreign businesses are responsible for seizing much of this land. The government has appropriated lands and homes forcibly, often for agricultural use or mining or logging.    According to testimony that I am going to submit for the record here, the Cambodian Government of Hun Sen maintains its political and economic power, and I am going to quote Meach Sovannara here, his words. He is a U.S. citizen who is being held in prison right now in Cambodia for speaking out about land reform and other issues like this. I am going to quote him:        ``They maintain economic power through the control and         harsh repression of anyone who stands in the way of         their economic enrichment and political control, and         anyone criticizing their policies and actions.''    His family is with us today, Jamie Meach, who is with us, and her children, their children.    Chairman, could I ask if they could stand in the front row?</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman. I want to thank you and Chairman Royce, the chair of the full----    [Applause.]</t>
   </si>
   <si>
@@ -115,27 +106,18 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I will make this short because I know we want to get on with the witnesses. But I, first of all, would like to thank Mr. Royce and Mr. Salmon for the leadership that they have provided on human rights issues in general. You guys have--these have been real heroes here, and it has been my honor to have worked with both of them. Ed, ever since he got to Congress as a freshman--I was already there, by the way--Ed has been the champion of broadcasting to people throughout the world so that they will know that they are not forgotten in their struggle for freedom and not forgotten by the American people.    We supposedly, as Americans, hold freedom and the rights of human beings to be our number-one value. This is how we will prove that. We will prove it by making sure that people in these countries where they are oppressed get the message that we are on their side, but also hearings like this where we insist that human rights be respected for our country to deal with those governments.    By the way, human rights, so often people think human rights are only elections, freedom of speech, freedom of religion. But human rights also means when someone owns a piece of property or someone has worked his life and the life of their family for generations on a piece of land, for that land to be taken away, for that property to be taken away is a violation, a fundamental violation of human rights, as is restricting someone's right to worship God the way they would choose.    So today we are reaffirming in this hearing, especially to the people of Cambodia, Vietnam, the Philippines, Burma, and other Southeast Asian countries, that we understand that there is a challenge there to their freedom and to the well-being of their families and to their human rights, and that we are on their side, and we want to find ways of how we can make that situation better. When governments think that they can take land and property away from ordinary people and give it to their cronies, basically crony capitalism has replaced communism as a chief oppressor.    Vietnam isn't a communist country anymore. Communism means Marxism, where nobody owns anything. They are just a corrupt dictatorship where they are taking care of their cronies. The same is true in Cambodia, and the same is unfortunately true at some level in the Philippines. But we know that the Filipino people, because they have a democratic process, are trying to work their way through it and make it better.    Well, that is what America is all about. We come from every race, religion, and ethnic background, and it is up to us to make sure that we reach out, using that, because I can see people from here from all of the countries I just mentioned. It is your job to speak for America there to make sure that the people of your countries, where you came from, that they know that America does stand for these principles, and also we are very pleased to have you here as the American fabric. That is what makes us a strong country and a force for freedom in the world.    So, thank you, Ed and Matt. I am looking forward to the testimony.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Ms. Chu?</t>
   </si>
   <si>
-    <t>Chu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chu. Thank you, Chairmen Royce and Salmon, and Ranking Member Sherman, for inviting me to take part in today's important hearing. And thank you for holding this hearing in Southern California, right next to my congressional district of Pasadena and Monterey Park. This whole area is home to so many people who are affected by what we will hear today, and this is an important opportunity to connect the work we do in Washington, DC, to home.    I particularly want to thank today's witnesses for sharing what will be heart-wrenching personal testimony on land ownership rights in Southeast Asia and what we can do to help. I have had the good fortune to speak with a few of you in the past, and I know that all of us will benefit from hearing your stories.    Land ownership is a cornerstone of a nation's economy and a necessity to rising out of poverty for many. It can encourage investment and build ties to communities. But too frequently in the developing world, weak property rights are abused to help the elite few or reward cronies at the expense of the most vulnerable. And women and those lacking education, those who need help the most, are often the most susceptible.    The two countries that we are focusing on today, Cambodia and the Philippines, are particularly egregious offenders. We are going to hear just a few stories of blatant land grabs by the powerful, and often done through force. But I know that there are many more who have had similar experiences.    In the Philippines in particular, the abuse of weak land titles that we have seen in the wake of Typhoon Haiyan in 2013 has been shocking as redevelopment becomes an excuse to push individuals out of their homes.    The governments make the apparent argument that they are working for the benefit of the country, trying to bring in investment and support growth. But their disregard for land ownership is a setback to true and stable economic growth. Few provisions exist to ensure that individuals who have lost land are compensated in a fair and long-term manner, and the benefits brought in are going to the ultra-powerful few who already control most of the wealth.    The result is that now in Cambodia, for example, three-fifths of the arable land is held by foreign agribusinesses. The massive displacement policies by these governments are creating large numbers of landless poor, many left to live in squatter colonies. This is an unacceptable situation leading to a long-term crisis.    Combined, Cambodia and the Philippines received almost $270 million in U.S. foreign aid in 2014. This gives us enormous leverage to encourage growth and reform that will help the vulnerable and not just the powerful. This is the morally right thing to do, and it is the right thing to do for long-term stability.    Today I am eager to hear expert testimony on the causes and the breadth of the problem, as well as the tools that are at our Government's disposal to push forward reforms. These stories from the second panel will drive home the urgency and humanity driving our need to act.    Thank you again for the opportunity to speak today, and I look forward to hearing from each of you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. We are grateful to have two excellent witnesses from the administration, and we are really appreciative that they could join us on our first panel this morning.    First we have James Carouso, the State Department's Acting Deputy Assistant Secretary of the Bureau of Asian and Pacific Affairs; and Jonathan Stivers, who is USAID's Assistant Administrator of the Asia Bureau.    We will start with Mr. Carouso.</t>
   </si>
   <si>
-    <t>Carouso</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carouso. Chairman Salmon, Chairman Royce, Ranking Member Sherman, members of the committee, thank you for the invitation to testify before this distinguished committee on land tenure issues and their effect on Southeast Asia's economic development, a topic of significant importance to the Department of State.    The Assistant Secretary for the East Asia and Pacific Affairs Bureau asked me to----</t>
   </si>
   <si>
@@ -154,9 +136,6 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Stivers?</t>
   </si>
   <si>
-    <t>Stivers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stivers. Chairman Salmon, Ranking Member Sherman, Chairman Royce, and distinguished Members of Congress, thank you for the invitation to testify on the role of USAID in advancing secure property rights, which are fundamental to development not only in Southeast Asia but globally. It is an honor to be here today before the committee at Cal Poly Pomona, and it is also a pleasure to be here with my State Department colleague, James Carouso.    Land rights are not only an economic issue but a human rights issue. In countries around the world, the absence of secure property rights protected by an effective rule of law is a major constraint to poverty alleviation and security. In Southeast Asia, we know from our decades of work and public surveys that property rights are either at the top or among the top concerns of the people of this region.    Chairman Royce, in particular you have been a champion of this issue, challenging us at USAID to provide more effective assistance to those fighting for property rights. Thank you for your leadership.    Strengthening land rights is central to USAID's mission of ending extreme poverty and promoting resilient, democratic societies. Our activities are making a difference in the lives of many who have suffered injustices and are paving the way for generations yet to come.    When property rights are unclear, households are less likely to make long-term investments in their land, investments that can promote economic growth and prosperity and lift people out of poverty.    When there is unfair confiscation of land for large-scale commercial operations, it often results in damaging the environment, which further destabilizes rural communities.    When women do not have the right to own or access land, their families and communities suffer, because women with secure rights to land and resources tend to better invest in their children's nutrition and education and the future of their countries.    When accessible and effective mechanisms for resolving land disputes are absent, conflict can erupt that undermines peace and stability. We know that some of the oldest, most complicated conflicts in Southeast Asia are rooted in disputes over land.    For the purposes of the hearing today, I will provide brief overviews of the land tenure challenges and our initiatives in the Philippines and Cambodia. But, of course, I am open to answering questions about other countries in the region.    In the Philippines, the U.S. Government's Partnership for Growth has supported collaboration with the Government of the Philippines to address the country's most serious constraints to inclusive and lasting growth. Protecting land rights is absolutely key to that effort.    The results of a recent USAID assessment of key constraints to secure property rights identified the challenges of overlapping mandates and lack of coordination between government institutions working on land issues; a low percentage of land parcels that are formally registered, estimated at only 50 percent due to the high cost and lengthy property registration processes; and delay and the high cost of court cases has caused a large backlog of all types. For example, 90 percent of the cases, of which 17 percent were land disputes, handled by the Supreme Court in 2012 took more than 20 years to make their way through the system.    In response to these challenges, USAID has been leading the way. Some of our current projects in the Philippines include, first, the JUSTICE Project, and this provides technical assistance to help improve the efficiency and predictability of the adjudication of court cases. In the largest court district in the country, which handles an estimated 15 percent of all court cases in the country, the median processing time has been reduced by between 60 and 78 percent in the last few years.    We have introduced automated case management, which wasn't there before, docket decongestion and streamlined litigation procedures.    What remains to be done is to scale up these interventions out of just this one district in order to have a broader impact on delay and congestion. We are now in the process of expanding this project to eight additional urban areas and hope to expand it even more in future years.    Second, we have the COMPETE Project, which promotes economic growth in a variety of ways, including providing technical assistance for government agencies to enhance land tenure and access rights. Through this project, we supported the implementation of the Residential Free Patent Act, which was passed by the Philippine Government, which streamlines the process for obtaining residential land titles outside the lengthy court process, and it also helps facilitate the process of using these titles as collateral to obtain loans. Our support has helped establish a public land titling program that during its first year increased the number of residential titles issued from 5,000 to 65,000 per year.    Third, through our Rebuild Project, we have helped restore approximately 250,000 land ownership records damaged or destroyed by Typhoon Haiyan.    And last, moving forward, I am pleased to formally and officially announce the launch of our new SURGE Project, which stands for Strengthening Urban Resilience for Growth and Equity, that will promote land rights in the Philippines. This project has been in the design phase, but today we are obligating $10.6 million in the first year of a 5-year, $48 million program subject to the availability of funds in future years. This includes helping targeted cities at the local level, as Chairman Royce emphasized, with land use planning and zoning, improving land management information in coordination at the local level, and strengthening the capacity of land management offices to secure land and access rights.    This committee's counsel, and particularly the leadership of Chairman Royce, has been integral in shaping the activities under the SURGE Project. I am proud of the work that we have done together with this committee, former Administrator of USAID Rod Shaw, who was here in January to speak about this issue, the Asia Bureau in Washington, and our mission in the Philippines. I think this is an excellent example of how the constituents and the community can forward issues to Members of Congress who take a leadership role in the issue, work with the administration to produce real outcomes to try to improve a system that needs a lot of improvement.    I look forward to further engaging with this committee as we get SURGE off the ground in the coming months.</t>
   </si>
   <si>
@@ -349,34 +328,22 @@
     <t xml:space="preserve">    Mr. Salmon. All right. We are fortunate this morning to also hear from a second panel of witnesses with personal knowledge of property rights in the region.    First, Ms. Faith Bautista is the president and CEO of the National Asian American Coalition. Welcome here today.    Mr. Joey Quinto is the publisher of the California Journal for Filipino Americans. Thank you, Joey. Glad to have you here today.    Mr. Zosimo--did I say that right?--Zosimo Contreras joins us as the current litigant in a property dispute in the Philippines.    And Mr. Richard Rogers is a law partner at Global Diligence LLP and represents Cambodian land-grabbing victims before the International Criminal Court.    We thank the panel for joining us this afternoon, and we will start with you, Ms. Bautista.</t>
   </si>
   <si>
-    <t>Bautista</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bautista. Thank you, and thank you so much for doing this. As far as I am concerned, you have a lifetime supply of lumpian and pancet for doing this for the Filipino community. So, thank you.    I am the CEO and president of one of the largest pan-Asian American advocacy organizations in the U.S. We are also the most prominent Asian American proponent of home ownership in America and work closely with thousands of generally small and medium-sized Asian American businesses such as the Island Pacific Supermarkets.    I am here to represent the Belisario family and the Belisarios of the world that reside in the U.S. There are thousands of these families who are U.S. citizens and are, in effect, subsidizing the Philippine Government and its corrupt officials and cronies who continue to misappropriate property titles from Philippine American citizens. I wish to give a personal example and also wish to disclose that I am a domestic partner of one of the victims. The example I wish to describe is the Belisario family who now resides as citizens in the U.S., including my boyfriend.    Here is the tale that could happen only in a foreign nation where corruption is considered the usual law of the land. Forty-four properties of the Belisario family were illegally seized by the Philippine Government or those acting as its agent. For example, titles were transferred from the legitimate owners to non-legitimate owners, often without any documentation.    The Belisario family's mother and father died in the Philippines, and their six sons and daughters moved to the U.S. more than 30 years ago. These five children--I am sorry, one is still in the Philippines. These five children have spent at least 2 years each in the Philippines unsuccessfully seeking to regain their illegally seized land and properties.    I have a complete list of these properties and the records that demonstrate that they own the property and that the properties were illegally seized. I am providing it to the committee today. Some of the property was illegally seized through illegal use of eminent domain powers. There is even evidence that the Philippine Government admits to some of the illegal seizures and the millions of dollars--hundreds of millions of pesos--due the Belisario family. For example, a bank in the Philippines has some of the documents but will not release the documents. This is apparently due to orders of the Philippine Government or those who contend that they are acting under the authority of the Philippine Government.    I am unclear that the estimated $20 million to $30 million due the Belisario family will ever be repaid, and I am unsure how the U.S. Government can ever make the Philippine Government compensate families such as the Belisarios. However, I have the following recommendations which could benefit many thousands of Filipino American families in the U.S.    First, every Filipino American who believes their property was illegally seized at any time since the Philippines became independent in 1946 should be able to provide a simple form to the Secretary of the Treasury, Jacob Lew, or the USAID, documenting their grievance and setting forth the amount due to them.    Second, the Secretary of the Treasury or the USAID shall be granted the authority to request directly from the President of the Philippines that the Philippine Government promptly and comprehensively respond to each complaint filed by an American citizen.    Third, from funding from the billions of dollars each year that the U.S. provides to the Philippines in various subsidies, the Philippine Government shall jointly, with the Secretary of the Treasury and leading Filipino American community organizations, appoint an independent auditor or special monitor to examine each claim and provide prompt reports with a specific resolution. This is a method the U.S. Secretary of the Treasury is very familiar with. That is, Treasury frequently uses special monitors to examine records of major banks as they relate, for example, to improper foreclosures.    Since I have personally worked and met with the Secretary of the Treasury, the chair of the Federal Reserve, and the U.S. Comptroller of the Currency, I would be happy to offer further suggestions to this committee and to appropriate Federal Government officials. I am also prepared, at my own personal expense, to assist any independent special monitor in developing effective auditing mechanisms. I estimate that this could result in billions of dollars, or hundreds of billions of pesos, being returned to hard-working Filipino American citizens.    And I just want to let all of you guys know, we have an office in Washington, DC, and I really appreciate Congressman Chu, Chairman Salmon, Chairman Royce, and all of you, that you really do care for the Southeast Asian. We are great citizens in this country, and thank you again for your help.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Quinto?</t>
   </si>
   <si>
-    <t>Quinto</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Quinto. Good morning, Chairman Salmon, Chairman Royce, Ranking Member Sherman, Congressman Rohrabacher, Congresswoman Chu. I am Joey Quinto, publisher of California Journal for Filipino Americans.    I am here today because I am a land-grabbing victim, in particular a victim of land-locking by a well-connected and powerful military general in the Philippines.    My family has two properties in Antipolo, Philippines. But a retired military general has been blocking the access road for many years now, so we and the more than 700 land parcel owners could not enter our properties.    The general, who has a two-story house, gates and fences with security personnel blocking the access roads, does not own land in Antipolo as per the Assessor, and does not have a building permit as per the Antipolo City Hall.    The general is a chairman of a savings and loan. The Central Bank is the regulator. Under Republic Act 8791, it states that all directors of a supervised institution should possess honesty and integrity. I requested the Philippine Central Bank to open an inquiry, but they declined my request.    I also have given the documents to some government agencies, but none of the agencies have done any action to stop the general from blocking the access road. This is lack of government accountability, no rule of law, and no respect of property rights.    The Department of Environment and Natural Resources tried to do their inspection to our properties, but they were stopped by the security personnel of the general.    In another circumstance, the mayor stated in a letter to the ombudsman that the City Hall's personnel, together with the Philippine National Police and the SWAT team, tried to enter but they were stopped by the security personnel of the military general.    Clearly, this general has the power to stop the Philippine laws from being enforced. He is either above the law or simply being tolerated by the Philippine Government.    The Philippine Republic Act 6713 requires all public officials and employees to respond within 15 days to any communications sent by the public. Disappointingly, numerous government agencies have been disregarding Republic Act 6713. In fact, I have been requesting the police chief for a copy of the letter the general has given him addressed to the Philippine Central Bank. But for more than 130 days now, the said letter has not been given to me.    The Department of Interior of the Local Government, the DILG, is a national government agency that has direct jurisdiction to the police and local government. I requested the DILG to call on the police chief to give me a copy of the letter from the general, but they were helpless. Even the mayor, who finally issued a violation of illegal structures to the general, has not acted completely against him. It has been more than 15 days now that I have requested a condemnation letter and removal of the illegal structures of the general, but I have not received any reply.    I also requested the DILG to call on the mayor to execute the notice of removal of illegal structures, but they have not exercised their jurisdiction to the mayor.    The culture of delay and no response could be considered a violation of Republic Act 6713. The general is just one of the many abusive individuals in the Philippines.    Let me now cite some victims who are suffering because of land grabbers.    Mr. Pablo left the Philippines because the land grabbers wanted to kill him. This is with a police report.    Mr. Cabrillos has been trapped in a corrupt court system. It has been 15 years of no progress on his fight for his land.    Mrs. Bolozzos stated that the land grabber burned her house with the intention of killing her.    And a family in Cebu did not get any protection and help from the police against a military officer who built fences around their property.    The Philippine Government should follow the guidelines of the U.S. grants that come from American taxpayers.    With the help of the U.S., I hope that the rule of law, property rights, transparency, good governance, and government accountability could be enforced in the Philippines so land grabbing could be resolved.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Contreras?</t>
   </si>
   <si>
-    <t>Contreras</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Contreras. Greetings, U.S. Congressman Ed Royce, U.S. Congressman Matt Salmon, and members of the Committee on Foreign Affairs.    My name is Zosimo Laurel Contreras. I am here today to represent my family and to express my great disappointment and heartache about our land in the city of Tagatay, Philippines. The land I am referring to was inherited by my mother, Adelina Laurel, from her father, my grandfather, Conrado Laurel.    To give you a little background on my family, my grand-uncle, Jose P. Laurel, was the President of the Philippines; and his son, who served as Vice President of the Philippines, Salvador Laurel, is my second cousin.    This inherited land is very, very important to us, as it would be for any family.    Early last year in January 2014, I went to the Philippines to visit our property with my cousins. I was shocked when I saw fences, block walls, and pineapple plantations on our land. Despite our 2001 court order for the land grabbers to vacate, they continue to occupy the land. While I was taking pictures of our property, someone came over to me and harassed and intimidated me, asking what I was doing and why am I taking pictures. I told them this is our property, and they told me the land is theirs. They told me that I own the title, but they own the land. They warned me not to go there anymore.    On June 15 of 2014, I visited our land again and saw a big house being constructed on the property, and there was no permit. Immediately after, we went to the mayor's office in Tagatay City to complain about the land grabbers' activity. The mayor's office sent a letter to the settlers to cease and desist the construction. We also sent letters to the land grabbers to vacate the property by July 30 of 2014, and they told us that we have to have a court order to execute the removal of the land grabbers on our property. At that time, we had our court order which gave us authority to remove them. They told us we need to leave and threatened us. We were outnumbered and intimidated by them as they told us to go home. The police, who were with us at the time, just stood there and didn't help. We felt disappointed we didn't have help from our local government authorities.    On another occasion, my cousin and I went to our land to have it surveyed and noticed the land grabbers removed the land markers. She then hired a surveyor to have the markers replaced and was harassed and threatened by the land grabbers, who were carrying guns. They told my cousin that she should not continue surveying the land.    I was also advised by my cousins and brothers in the Philippines that I should not go there alone because of the dangerous situation that might cause harm on me. The land grabbers had machetes, guns, and we are outnumbered by them.    I am here to graciously ask for your assistance to work with the Philippine Government and help my family keep our precious land which has been inherited through so many generations. We need your help. We cannot let the land grabbers control us. We cannot continue to feel helpless. Where is the justice? Where is the rule of law in our Philippine Government?    This is a serious situation. We should not be afraid to protect and visit our own land. As a responsible landowner, my family and I continue to pay all the taxes on the property; however, no one is representing us. The police, who were with us, acted helpless and scared. Where is the respect for the property owners, and who will protect our rights?    Please, please help us and the rest of the property owners who are victims of these land grabbers.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Rogers?</t>
-  </si>
-  <si>
-    <t>Rogers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Good morning, Chairman Salmon and members of the committee. Thank you very much for inviting me here to speak about property rights in Cambodia and about the problems of land grabbing.    I would also like to express my appreciation to the Cambodian communities who have traveled from far and wide to be here at this hearing today to show their support for your important work.    Mr. Chairman, the current Cambodian regime, which has been in power for 30 years, appears to have two very basic but interrelated objectives, and they are the maintenance of power at all costs and the self-enrichment of the ruling elite, primarily through land grabbing.    Unfortunately, to achieve these objectives, the ruling elite have committed human rights violations on a massive scale, often under the guise of development. And of all the human rights concerns that plague Cambodia, land grabbing is by far the most prevalent and probably the most destructive.    According to groups monitoring the land crisis, from the year 2000 to the end of 2013, land grabbing had adversely affected, in one way or another, over 770,000. New research suggests that the situation is actually getting worse, not better. In 2014, there were an additional 50,000 people affected by land conflicts.    So the total number is now around 830,000, increasing by about 1,000 people per week, which amounts to a staggering 5.5 percent of the entire Cambodian population.    Mr. Chairman, a significant proportion of these people have already been forcibly evicted, and while we don't have a precise nationwide figure for this population displacement, it is thought to run into the hundreds of thousands. The evictions themselves are often violent, with private security firms, police and the army using live ammunition, tear gas and bulldozers to drive out villagers who protect their homes with sticks and stones.    Residents have been shot or beaten, entire villages have been burned to the ground, and evictees are often sent to live in squalid resettlement camps.    Not surprisingly, the Cambodian Government claims that the economic land concessions they award to private businesses bring economic benefits to the local communities. But research by the U.N. and others suggests that, more often than not, they actually have the opposite effect. The way that these development projects are implemented leaves ordinary Cambodians with a loss of traditional livelihoods, with a lack of clean water and sanitation, with food shortages and malnutrition, and with crushing unemployment.    In fact, those who profit are a tiny group of ruling elite made up of senior members of the ruling party, senior members of state security forces, as well as the government-connected business elite.    Unfortunately, the Cambodian judicial system is part of the problem and not the solution. There is a decent legal framework to regulate land use in Cambodia, including the economic land concessions. The problem is that the laws are simply ignored both by the government and by the judiciary when there is money to be made. In fact, the ruling elite have relied heavily on corrupt and biased judges to implement the land grabs, intimidate the poor, and crush their opponents.    So no one really expects the Cambodian courts to be fair with the massive land grabbing and illegal displacements that have occurred over the last 15 years.    Mr. Chairman, it is widely accepted that the forced evictions were illegal in the sense that they breached Cambodian national laws, as well as international human rights conventions. But do they also violate international criminal law?    Well, as the lawyer for a group of Cambodian victims, I was asked to advise whether or not the land crimes have become so serious that a case could be brought before the International Criminal Court in the Hague. While land grabbing is not an international crime per se, forcible transfer of populations can be. It can be a crime against humanity if it is sufficiently widespread and part of a state policy.    After analyzing thousands of pages of reports and evidence, we found that when the mass evictions over the last 15 years are considered together, when they are looked at cumulatively, the situation meets all the legal elements of crimes against humanity.    So in October 2014, we filed a communication to the prosecutor of the ICC asking her to open an investigation, and we are now waiting to see if she accepts the case and moves it to the next stage.    Finally, Mr. Chairman, in my written submission I outlined three recommendations that I thought could help address the problems of land grabbing. First is the adoption of a rule of law accountability act for Cambodia, or even better perhaps is the adoption of the global Magnitsky Act and its application to Cambodia. I understand that there is a bill already being considered in the House and the Senate.    Secondly is increased funding and support for Cambodian NGOs who monitor the land grabbing.    And thirdly is the prohibition of U.S. funding or military training for Cambodian military units that take part in illegal forced evictions.    Mr. Chairman, there are few populations around the world who have suffered more mass atrocities and are more deserving of justice than the Cambodian people. At the very least, they deserve a stable home. Thank you very much.</t>
@@ -925,11 +892,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -949,13 +914,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -977,11 +940,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1001,13 +962,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1029,11 +988,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1053,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1081,11 +1036,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1105,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1133,11 +1084,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1157,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1183,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1209,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1235,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1261,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1289,11 +1228,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1313,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1341,11 +1276,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1365,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1393,11 +1324,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1417,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1445,11 +1372,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1469,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1497,11 +1420,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1521,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1549,11 +1468,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1573,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1601,11 +1516,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1625,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1653,11 +1564,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1677,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1705,11 +1612,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1729,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1757,11 +1660,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1781,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1807,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1833,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1859,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1885,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1911,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1937,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1963,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1989,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2015,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2041,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2067,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2093,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2119,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2145,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2171,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2197,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2223,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2249,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2275,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2303,11 +2164,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2327,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2353,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2379,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2405,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2431,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2457,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2483,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2509,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2535,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2563,11 +2404,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2587,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2613,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2639,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2665,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2691,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2717,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2743,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2769,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2797,11 +2620,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2821,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2847,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2873,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2899,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2925,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2951,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2977,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3003,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3029,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3055,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3081,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3107,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3133,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3159,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3187,11 +2980,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3213,11 +3004,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3237,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3265,11 +3052,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3289,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>114</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3317,11 +3100,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3341,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>117</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3369,11 +3148,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3393,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3421,11 +3196,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3445,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3473,11 +3244,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3497,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3525,11 +3292,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3549,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3577,11 +3340,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3601,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3629,11 +3388,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3653,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3681,11 +3436,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3705,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3731,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3757,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3783,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>114</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3809,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3835,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>114</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3861,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3887,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>114</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3913,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3939,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>114</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3965,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3991,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>114</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4017,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4043,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>117</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4069,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4095,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>117</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4121,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4149,11 +3868,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4173,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4199,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>114</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4225,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4251,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4277,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4305,11 +4012,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4329,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4355,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>114</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4381,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4407,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>117</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4433,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4459,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>114</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4485,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4511,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>114</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4537,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4565,11 +4252,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4589,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
-      </c>
-      <c r="G143" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4615,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4641,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
-      </c>
-      <c r="G145" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4667,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4693,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
-      </c>
-      <c r="G147" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4721,11 +4396,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95991.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95991.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. This committee will come to order.    Chairman Royce, I welcome the opportunity to convene this subcommittee hearing with you today on Property Rights and Development in Southeast Asia.    I always enjoy coming to California, and the Cal Poly Pomona campus is truly a beautiful backdrop.    Mr. Chairman, you are very lucky to represent such a beautiful piece of our country, and I would like to thank our distinguished witnesses for their participation in the hearing.    Today I look forward to hearing about the progress that Southeast Asian countries have made in developing rule of law and protections for property rights. Given varying structures of governance and levels of development among Southeast Asian countries, we know that large challenges remain for countries, for individuals, and for businesses. I hope to learn more about these obstacles as well.    We are concerned about the abuse of power and gross violations of property rights in Cambodia. Private property rights were greatly impaired under the Khmer Rouge, though Cambodian law does not recognize private, state, and collective ownership by private individuals and indigenous communities.    Despite this, land-grabbing by the government for their political cronies and businesses has escalated significantly over the years. Up to \\1/2\\ million Cambodians have been reported to be displaced by forced land seizures. Poor and vulnerable populations have been identified as most harmed by forced evictions and lack of compensation for their land. Due to high court costs and lack of resources for many of those adversely affected, many disputes never make it to court. Those that do, end up facing an ineffective system to seek redress for violations and unfair treatment.    I know that USAID has funded programs to train lawyers and judges and support NGOs with legal aid and property rights education, and the World Bank and other donors have funded similar projects. I welcome additional solutions to the tragic condition of property rights in Cambodia.    The Philippines' 1987 constitution includes many provisions which protect private property rights, and efforts have been made to protect landowners from squatters and unfair land takings. The Philippine Government has attempted the execution of land reform programs for many years, with varying degrees of success and failure.    Despite efforts, much of the vulnerable rural population of the Philippines remain landless, and the population living in informal settlements with no enforceable legal basis to their claims continues to grow. Inconsistencies in Philippine land and property policies, exacerbated by a weak legal system and political or business interference, have stoked competition over land ownership claims and privileges. Overlapping or fraudulent land titles can fuel conflict, contribute greatly to instances of squatting or land grabbing, and hinder greater economic development.    A tradition of government corruption in the Philippines has made these issues harder to address. USAID and other international organizations and NGOs have worked to improve the land rights in the Philippines, such as supporting the development of the Residential Free Patent Act of 2010 that streamlines titling of residential lands. These efforts advance governance and advocacy for the Filipino population and help those without a voice.    Similarly, I look to our distinguished witnesses for insight on how we can catalyze more positive momentum in the Philippines. Land grabbing and insufficient protection of property rights exists elsewhere in Southeast Asia, and I welcome discussion about efforts to address issues in other countries as well. For instance, in Burma, citizens and organizations cannot own any land, since it all belongs to the state. Forcible and uncompensated land confiscation is rampant in Burma, and its drive for economic growth has stifled progress on the issue. I would be interested to hear from the State Department and USAID on what work we have done in Burma to aid in reversing this injustice.    Similarly in Indonesia, property rights are inconsistent, and the land rights of the vulnerable and the poor are insecure. Capacity to interpret laws fairly and unambiguously is limited. In Vietnam and Laos, the land, as they say, belongs to all, but it is administered poorly and inefficiently. Here, Thailand has been a model for Southeast Asian nations, boasting a transparent land administration system that has issued title deeds to much of the population.    The United States strives to be a voice of reason and to help galvanize necessary reform throughout the region. We will seek to promote and protect fundamental rights that are inconsistently enforced and poorly upheld in Southeast Asia. Furthermore, we will work with our allies to encourage the development of transparent, enforceable, and equitable laws that will benefit all members of these diverse countries.    Members present will be permitted to submit written statements to be included in the official hearing record. And without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    I now yield to Chairman Royce for his opening statement.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Mr. Salmon.    I think we should start by thanking Cal Poly Pomona for opening up this hall to so many people here today. We had an opportunity not too long ago to have the director of USAID out here in this very hall, and Cal Poly Pomona gave us a forum to talk about the challenges about rebuilding after Tacloban, and specifically about legislation that this committee, my committee had passed that I had authored that allowed aid to go immediately, and food to be purchased locally with respect to our USAID efforts in the Philippines.    But today I am particularly appreciative of my colleagues here from Congress, and the State Department and USAID being here again. Director Shaw I thought did a great job. We had a town hall meeting here last time. This time we are doing this in the form of a hearing in order to get into an issue that I think is very, very important, and that is what can we do to help change this phenomenon of land grabbing and the dislocation of people that are being pushed off of their land by government policy around the world, and specifically some of the new programs that USAID is championing in the Philippines and elsewhere in order to achieve this goal.    I did want to mention my wife Marie used to be a professor here at Cal Poly Pomona, so I have had the opportunity to be up on the campus a number of times for international programs. But in this case, we are looking at how we can best promote not just the rights of people in parts of the Philippines right now where, because of the Marcos legacy, they do not really have a tradition of land title. This was one of the things that President Aquino was trying to change and is trying to change. But locally, as you go into certain parts of the Philippines, Marcos' practices of seizing land and transferring that land into the hands of people who are well connected locally, has created an environment where, you can see by the concern of the community here, you can see that people, frankly, are losing their property.    Land title reform is a big part of the solution here, and that is what we are going to talk about today, and we are going to hear from witnesses.    We had had some successes, but as we aim, frankly, to deepen our engagement in Southeast Asia and transform our aid so that it supports sustainable economic growth, we have got to consider whether the underlying conditions exist to realize that growth. In countries where citizens are denied basic protections under the law, including the right to secure property and the right to basically have title, those conditions don't exist.    So if I could just speak to Cambodia for a minute, Chairman Salmon, over half of land holdings are held informally there, without legal title. It would help enormously if we could put into effect a change that would give land title to those who are farming that land, because as the Cambodian economy has developed, many Cambodians have been displaced by the Hun Sen government. The government and domestic and foreign businesses are responsible for seizing much of this land. The government has appropriated lands and homes forcibly, often for agricultural use or mining or logging.    According to testimony that I am going to submit for the record here, the Cambodian Government of Hun Sen maintains its political and economic power, and I am going to quote Meach Sovannara here, his words. He is a U.S. citizen who is being held in prison right now in Cambodia for speaking out about land reform and other issues like this. I am going to quote him:        ``They maintain economic power through the control and         harsh repression of anyone who stands in the way of         their economic enrichment and political control, and         anyone criticizing their policies and actions.''    His family is with us today, Jamie Meach, who is with us, and her children, their children.    Chairman, could I ask if they could stand in the front row?</t>
   </si>
   <si>
@@ -79,6 +91,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman. I want to thank you and Chairman Royce, the chair of the full----    [Applause.]</t>
   </si>
   <si>
@@ -106,18 +124,30 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I will make this short because I know we want to get on with the witnesses. But I, first of all, would like to thank Mr. Royce and Mr. Salmon for the leadership that they have provided on human rights issues in general. You guys have--these have been real heroes here, and it has been my honor to have worked with both of them. Ed, ever since he got to Congress as a freshman--I was already there, by the way--Ed has been the champion of broadcasting to people throughout the world so that they will know that they are not forgotten in their struggle for freedom and not forgotten by the American people.    We supposedly, as Americans, hold freedom and the rights of human beings to be our number-one value. This is how we will prove that. We will prove it by making sure that people in these countries where they are oppressed get the message that we are on their side, but also hearings like this where we insist that human rights be respected for our country to deal with those governments.    By the way, human rights, so often people think human rights are only elections, freedom of speech, freedom of religion. But human rights also means when someone owns a piece of property or someone has worked his life and the life of their family for generations on a piece of land, for that land to be taken away, for that property to be taken away is a violation, a fundamental violation of human rights, as is restricting someone's right to worship God the way they would choose.    So today we are reaffirming in this hearing, especially to the people of Cambodia, Vietnam, the Philippines, Burma, and other Southeast Asian countries, that we understand that there is a challenge there to their freedom and to the well-being of their families and to their human rights, and that we are on their side, and we want to find ways of how we can make that situation better. When governments think that they can take land and property away from ordinary people and give it to their cronies, basically crony capitalism has replaced communism as a chief oppressor.    Vietnam isn't a communist country anymore. Communism means Marxism, where nobody owns anything. They are just a corrupt dictatorship where they are taking care of their cronies. The same is true in Cambodia, and the same is unfortunately true at some level in the Philippines. But we know that the Filipino people, because they have a democratic process, are trying to work their way through it and make it better.    Well, that is what America is all about. We come from every race, religion, and ethnic background, and it is up to us to make sure that we reach out, using that, because I can see people from here from all of the countries I just mentioned. It is your job to speak for America there to make sure that the people of your countries, where you came from, that they know that America does stand for these principles, and also we are very pleased to have you here as the American fabric. That is what makes us a strong country and a force for freedom in the world.    So, thank you, Ed and Matt. I am looking forward to the testimony.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Ms. Chu?</t>
   </si>
   <si>
+    <t>Chu</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Chu. Thank you, Chairmen Royce and Salmon, and Ranking Member Sherman, for inviting me to take part in today's important hearing. And thank you for holding this hearing in Southern California, right next to my congressional district of Pasadena and Monterey Park. This whole area is home to so many people who are affected by what we will hear today, and this is an important opportunity to connect the work we do in Washington, DC, to home.    I particularly want to thank today's witnesses for sharing what will be heart-wrenching personal testimony on land ownership rights in Southeast Asia and what we can do to help. I have had the good fortune to speak with a few of you in the past, and I know that all of us will benefit from hearing your stories.    Land ownership is a cornerstone of a nation's economy and a necessity to rising out of poverty for many. It can encourage investment and build ties to communities. But too frequently in the developing world, weak property rights are abused to help the elite few or reward cronies at the expense of the most vulnerable. And women and those lacking education, those who need help the most, are often the most susceptible.    The two countries that we are focusing on today, Cambodia and the Philippines, are particularly egregious offenders. We are going to hear just a few stories of blatant land grabs by the powerful, and often done through force. But I know that there are many more who have had similar experiences.    In the Philippines in particular, the abuse of weak land titles that we have seen in the wake of Typhoon Haiyan in 2013 has been shocking as redevelopment becomes an excuse to push individuals out of their homes.    The governments make the apparent argument that they are working for the benefit of the country, trying to bring in investment and support growth. But their disregard for land ownership is a setback to true and stable economic growth. Few provisions exist to ensure that individuals who have lost land are compensated in a fair and long-term manner, and the benefits brought in are going to the ultra-powerful few who already control most of the wealth.    The result is that now in Cambodia, for example, three-fifths of the arable land is held by foreign agribusinesses. The massive displacement policies by these governments are creating large numbers of landless poor, many left to live in squatter colonies. This is an unacceptable situation leading to a long-term crisis.    Combined, Cambodia and the Philippines received almost $270 million in U.S. foreign aid in 2014. This gives us enormous leverage to encourage growth and reform that will help the vulnerable and not just the powerful. This is the morally right thing to do, and it is the right thing to do for long-term stability.    Today I am eager to hear expert testimony on the causes and the breadth of the problem, as well as the tools that are at our Government's disposal to push forward reforms. These stories from the second panel will drive home the urgency and humanity driving our need to act.    Thank you again for the opportunity to speak today, and I look forward to hearing from each of you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. We are grateful to have two excellent witnesses from the administration, and we are really appreciative that they could join us on our first panel this morning.    First we have James Carouso, the State Department's Acting Deputy Assistant Secretary of the Bureau of Asian and Pacific Affairs; and Jonathan Stivers, who is USAID's Assistant Administrator of the Asia Bureau.    We will start with Mr. Carouso.</t>
   </si>
   <si>
+    <t>Carouso</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carouso. Chairman Salmon, Chairman Royce, Ranking Member Sherman, members of the committee, thank you for the invitation to testify before this distinguished committee on land tenure issues and their effect on Southeast Asia's economic development, a topic of significant importance to the Department of State.    The Assistant Secretary for the East Asia and Pacific Affairs Bureau asked me to----</t>
   </si>
   <si>
@@ -136,6 +166,9 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Stivers?</t>
   </si>
   <si>
+    <t>Stivers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stivers. Chairman Salmon, Ranking Member Sherman, Chairman Royce, and distinguished Members of Congress, thank you for the invitation to testify on the role of USAID in advancing secure property rights, which are fundamental to development not only in Southeast Asia but globally. It is an honor to be here today before the committee at Cal Poly Pomona, and it is also a pleasure to be here with my State Department colleague, James Carouso.    Land rights are not only an economic issue but a human rights issue. In countries around the world, the absence of secure property rights protected by an effective rule of law is a major constraint to poverty alleviation and security. In Southeast Asia, we know from our decades of work and public surveys that property rights are either at the top or among the top concerns of the people of this region.    Chairman Royce, in particular you have been a champion of this issue, challenging us at USAID to provide more effective assistance to those fighting for property rights. Thank you for your leadership.    Strengthening land rights is central to USAID's mission of ending extreme poverty and promoting resilient, democratic societies. Our activities are making a difference in the lives of many who have suffered injustices and are paving the way for generations yet to come.    When property rights are unclear, households are less likely to make long-term investments in their land, investments that can promote economic growth and prosperity and lift people out of poverty.    When there is unfair confiscation of land for large-scale commercial operations, it often results in damaging the environment, which further destabilizes rural communities.    When women do not have the right to own or access land, their families and communities suffer, because women with secure rights to land and resources tend to better invest in their children's nutrition and education and the future of their countries.    When accessible and effective mechanisms for resolving land disputes are absent, conflict can erupt that undermines peace and stability. We know that some of the oldest, most complicated conflicts in Southeast Asia are rooted in disputes over land.    For the purposes of the hearing today, I will provide brief overviews of the land tenure challenges and our initiatives in the Philippines and Cambodia. But, of course, I am open to answering questions about other countries in the region.    In the Philippines, the U.S. Government's Partnership for Growth has supported collaboration with the Government of the Philippines to address the country's most serious constraints to inclusive and lasting growth. Protecting land rights is absolutely key to that effort.    The results of a recent USAID assessment of key constraints to secure property rights identified the challenges of overlapping mandates and lack of coordination between government institutions working on land issues; a low percentage of land parcels that are formally registered, estimated at only 50 percent due to the high cost and lengthy property registration processes; and delay and the high cost of court cases has caused a large backlog of all types. For example, 90 percent of the cases, of which 17 percent were land disputes, handled by the Supreme Court in 2012 took more than 20 years to make their way through the system.    In response to these challenges, USAID has been leading the way. Some of our current projects in the Philippines include, first, the JUSTICE Project, and this provides technical assistance to help improve the efficiency and predictability of the adjudication of court cases. In the largest court district in the country, which handles an estimated 15 percent of all court cases in the country, the median processing time has been reduced by between 60 and 78 percent in the last few years.    We have introduced automated case management, which wasn't there before, docket decongestion and streamlined litigation procedures.    What remains to be done is to scale up these interventions out of just this one district in order to have a broader impact on delay and congestion. We are now in the process of expanding this project to eight additional urban areas and hope to expand it even more in future years.    Second, we have the COMPETE Project, which promotes economic growth in a variety of ways, including providing technical assistance for government agencies to enhance land tenure and access rights. Through this project, we supported the implementation of the Residential Free Patent Act, which was passed by the Philippine Government, which streamlines the process for obtaining residential land titles outside the lengthy court process, and it also helps facilitate the process of using these titles as collateral to obtain loans. Our support has helped establish a public land titling program that during its first year increased the number of residential titles issued from 5,000 to 65,000 per year.    Third, through our Rebuild Project, we have helped restore approximately 250,000 land ownership records damaged or destroyed by Typhoon Haiyan.    And last, moving forward, I am pleased to formally and officially announce the launch of our new SURGE Project, which stands for Strengthening Urban Resilience for Growth and Equity, that will promote land rights in the Philippines. This project has been in the design phase, but today we are obligating $10.6 million in the first year of a 5-year, $48 million program subject to the availability of funds in future years. This includes helping targeted cities at the local level, as Chairman Royce emphasized, with land use planning and zoning, improving land management information in coordination at the local level, and strengthening the capacity of land management offices to secure land and access rights.    This committee's counsel, and particularly the leadership of Chairman Royce, has been integral in shaping the activities under the SURGE Project. I am proud of the work that we have done together with this committee, former Administrator of USAID Rod Shaw, who was here in January to speak about this issue, the Asia Bureau in Washington, and our mission in the Philippines. I think this is an excellent example of how the constituents and the community can forward issues to Members of Congress who take a leadership role in the issue, work with the administration to produce real outcomes to try to improve a system that needs a lot of improvement.    I look forward to further engaging with this committee as we get SURGE off the ground in the coming months.</t>
   </si>
   <si>
@@ -328,22 +361,34 @@
     <t xml:space="preserve">    Mr. Salmon. All right. We are fortunate this morning to also hear from a second panel of witnesses with personal knowledge of property rights in the region.    First, Ms. Faith Bautista is the president and CEO of the National Asian American Coalition. Welcome here today.    Mr. Joey Quinto is the publisher of the California Journal for Filipino Americans. Thank you, Joey. Glad to have you here today.    Mr. Zosimo--did I say that right?--Zosimo Contreras joins us as the current litigant in a property dispute in the Philippines.    And Mr. Richard Rogers is a law partner at Global Diligence LLP and represents Cambodian land-grabbing victims before the International Criminal Court.    We thank the panel for joining us this afternoon, and we will start with you, Ms. Bautista.</t>
   </si>
   <si>
+    <t>Bautista</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bautista. Thank you, and thank you so much for doing this. As far as I am concerned, you have a lifetime supply of lumpian and pancet for doing this for the Filipino community. So, thank you.    I am the CEO and president of one of the largest pan-Asian American advocacy organizations in the U.S. We are also the most prominent Asian American proponent of home ownership in America and work closely with thousands of generally small and medium-sized Asian American businesses such as the Island Pacific Supermarkets.    I am here to represent the Belisario family and the Belisarios of the world that reside in the U.S. There are thousands of these families who are U.S. citizens and are, in effect, subsidizing the Philippine Government and its corrupt officials and cronies who continue to misappropriate property titles from Philippine American citizens. I wish to give a personal example and also wish to disclose that I am a domestic partner of one of the victims. The example I wish to describe is the Belisario family who now resides as citizens in the U.S., including my boyfriend.    Here is the tale that could happen only in a foreign nation where corruption is considered the usual law of the land. Forty-four properties of the Belisario family were illegally seized by the Philippine Government or those acting as its agent. For example, titles were transferred from the legitimate owners to non-legitimate owners, often without any documentation.    The Belisario family's mother and father died in the Philippines, and their six sons and daughters moved to the U.S. more than 30 years ago. These five children--I am sorry, one is still in the Philippines. These five children have spent at least 2 years each in the Philippines unsuccessfully seeking to regain their illegally seized land and properties.    I have a complete list of these properties and the records that demonstrate that they own the property and that the properties were illegally seized. I am providing it to the committee today. Some of the property was illegally seized through illegal use of eminent domain powers. There is even evidence that the Philippine Government admits to some of the illegal seizures and the millions of dollars--hundreds of millions of pesos--due the Belisario family. For example, a bank in the Philippines has some of the documents but will not release the documents. This is apparently due to orders of the Philippine Government or those who contend that they are acting under the authority of the Philippine Government.    I am unclear that the estimated $20 million to $30 million due the Belisario family will ever be repaid, and I am unsure how the U.S. Government can ever make the Philippine Government compensate families such as the Belisarios. However, I have the following recommendations which could benefit many thousands of Filipino American families in the U.S.    First, every Filipino American who believes their property was illegally seized at any time since the Philippines became independent in 1946 should be able to provide a simple form to the Secretary of the Treasury, Jacob Lew, or the USAID, documenting their grievance and setting forth the amount due to them.    Second, the Secretary of the Treasury or the USAID shall be granted the authority to request directly from the President of the Philippines that the Philippine Government promptly and comprehensively respond to each complaint filed by an American citizen.    Third, from funding from the billions of dollars each year that the U.S. provides to the Philippines in various subsidies, the Philippine Government shall jointly, with the Secretary of the Treasury and leading Filipino American community organizations, appoint an independent auditor or special monitor to examine each claim and provide prompt reports with a specific resolution. This is a method the U.S. Secretary of the Treasury is very familiar with. That is, Treasury frequently uses special monitors to examine records of major banks as they relate, for example, to improper foreclosures.    Since I have personally worked and met with the Secretary of the Treasury, the chair of the Federal Reserve, and the U.S. Comptroller of the Currency, I would be happy to offer further suggestions to this committee and to appropriate Federal Government officials. I am also prepared, at my own personal expense, to assist any independent special monitor in developing effective auditing mechanisms. I estimate that this could result in billions of dollars, or hundreds of billions of pesos, being returned to hard-working Filipino American citizens.    And I just want to let all of you guys know, we have an office in Washington, DC, and I really appreciate Congressman Chu, Chairman Salmon, Chairman Royce, and all of you, that you really do care for the Southeast Asian. We are great citizens in this country, and thank you again for your help.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Quinto?</t>
   </si>
   <si>
+    <t>Quinto</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Quinto. Good morning, Chairman Salmon, Chairman Royce, Ranking Member Sherman, Congressman Rohrabacher, Congresswoman Chu. I am Joey Quinto, publisher of California Journal for Filipino Americans.    I am here today because I am a land-grabbing victim, in particular a victim of land-locking by a well-connected and powerful military general in the Philippines.    My family has two properties in Antipolo, Philippines. But a retired military general has been blocking the access road for many years now, so we and the more than 700 land parcel owners could not enter our properties.    The general, who has a two-story house, gates and fences with security personnel blocking the access roads, does not own land in Antipolo as per the Assessor, and does not have a building permit as per the Antipolo City Hall.    The general is a chairman of a savings and loan. The Central Bank is the regulator. Under Republic Act 8791, it states that all directors of a supervised institution should possess honesty and integrity. I requested the Philippine Central Bank to open an inquiry, but they declined my request.    I also have given the documents to some government agencies, but none of the agencies have done any action to stop the general from blocking the access road. This is lack of government accountability, no rule of law, and no respect of property rights.    The Department of Environment and Natural Resources tried to do their inspection to our properties, but they were stopped by the security personnel of the general.    In another circumstance, the mayor stated in a letter to the ombudsman that the City Hall's personnel, together with the Philippine National Police and the SWAT team, tried to enter but they were stopped by the security personnel of the military general.    Clearly, this general has the power to stop the Philippine laws from being enforced. He is either above the law or simply being tolerated by the Philippine Government.    The Philippine Republic Act 6713 requires all public officials and employees to respond within 15 days to any communications sent by the public. Disappointingly, numerous government agencies have been disregarding Republic Act 6713. In fact, I have been requesting the police chief for a copy of the letter the general has given him addressed to the Philippine Central Bank. But for more than 130 days now, the said letter has not been given to me.    The Department of Interior of the Local Government, the DILG, is a national government agency that has direct jurisdiction to the police and local government. I requested the DILG to call on the police chief to give me a copy of the letter from the general, but they were helpless. Even the mayor, who finally issued a violation of illegal structures to the general, has not acted completely against him. It has been more than 15 days now that I have requested a condemnation letter and removal of the illegal structures of the general, but I have not received any reply.    I also requested the DILG to call on the mayor to execute the notice of removal of illegal structures, but they have not exercised their jurisdiction to the mayor.    The culture of delay and no response could be considered a violation of Republic Act 6713. The general is just one of the many abusive individuals in the Philippines.    Let me now cite some victims who are suffering because of land grabbers.    Mr. Pablo left the Philippines because the land grabbers wanted to kill him. This is with a police report.    Mr. Cabrillos has been trapped in a corrupt court system. It has been 15 years of no progress on his fight for his land.    Mrs. Bolozzos stated that the land grabber burned her house with the intention of killing her.    And a family in Cebu did not get any protection and help from the police against a military officer who built fences around their property.    The Philippine Government should follow the guidelines of the U.S. grants that come from American taxpayers.    With the help of the U.S., I hope that the rule of law, property rights, transparency, good governance, and government accountability could be enforced in the Philippines so land grabbing could be resolved.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Contreras?</t>
   </si>
   <si>
+    <t>Contreras</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Contreras. Greetings, U.S. Congressman Ed Royce, U.S. Congressman Matt Salmon, and members of the Committee on Foreign Affairs.    My name is Zosimo Laurel Contreras. I am here today to represent my family and to express my great disappointment and heartache about our land in the city of Tagatay, Philippines. The land I am referring to was inherited by my mother, Adelina Laurel, from her father, my grandfather, Conrado Laurel.    To give you a little background on my family, my grand-uncle, Jose P. Laurel, was the President of the Philippines; and his son, who served as Vice President of the Philippines, Salvador Laurel, is my second cousin.    This inherited land is very, very important to us, as it would be for any family.    Early last year in January 2014, I went to the Philippines to visit our property with my cousins. I was shocked when I saw fences, block walls, and pineapple plantations on our land. Despite our 2001 court order for the land grabbers to vacate, they continue to occupy the land. While I was taking pictures of our property, someone came over to me and harassed and intimidated me, asking what I was doing and why am I taking pictures. I told them this is our property, and they told me the land is theirs. They told me that I own the title, but they own the land. They warned me not to go there anymore.    On June 15 of 2014, I visited our land again and saw a big house being constructed on the property, and there was no permit. Immediately after, we went to the mayor's office in Tagatay City to complain about the land grabbers' activity. The mayor's office sent a letter to the settlers to cease and desist the construction. We also sent letters to the land grabbers to vacate the property by July 30 of 2014, and they told us that we have to have a court order to execute the removal of the land grabbers on our property. At that time, we had our court order which gave us authority to remove them. They told us we need to leave and threatened us. We were outnumbered and intimidated by them as they told us to go home. The police, who were with us at the time, just stood there and didn't help. We felt disappointed we didn't have help from our local government authorities.    On another occasion, my cousin and I went to our land to have it surveyed and noticed the land grabbers removed the land markers. She then hired a surveyor to have the markers replaced and was harassed and threatened by the land grabbers, who were carrying guns. They told my cousin that she should not continue surveying the land.    I was also advised by my cousins and brothers in the Philippines that I should not go there alone because of the dangerous situation that might cause harm on me. The land grabbers had machetes, guns, and we are outnumbered by them.    I am here to graciously ask for your assistance to work with the Philippine Government and help my family keep our precious land which has been inherited through so many generations. We need your help. We cannot let the land grabbers control us. We cannot continue to feel helpless. Where is the justice? Where is the rule of law in our Philippine Government?    This is a serious situation. We should not be afraid to protect and visit our own land. As a responsible landowner, my family and I continue to pay all the taxes on the property; however, no one is representing us. The police, who were with us, acted helpless and scared. Where is the respect for the property owners, and who will protect our rights?    Please, please help us and the rest of the property owners who are victims of these land grabbers.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Rogers?</t>
+  </si>
+  <si>
+    <t>Rogers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Good morning, Chairman Salmon and members of the committee. Thank you very much for inviting me here to speak about property rights in Cambodia and about the problems of land grabbing.    I would also like to express my appreciation to the Cambodian communities who have traveled from far and wide to be here at this hearing today to show their support for your important work.    Mr. Chairman, the current Cambodian regime, which has been in power for 30 years, appears to have two very basic but interrelated objectives, and they are the maintenance of power at all costs and the self-enrichment of the ruling elite, primarily through land grabbing.    Unfortunately, to achieve these objectives, the ruling elite have committed human rights violations on a massive scale, often under the guise of development. And of all the human rights concerns that plague Cambodia, land grabbing is by far the most prevalent and probably the most destructive.    According to groups monitoring the land crisis, from the year 2000 to the end of 2013, land grabbing had adversely affected, in one way or another, over 770,000. New research suggests that the situation is actually getting worse, not better. In 2014, there were an additional 50,000 people affected by land conflicts.    So the total number is now around 830,000, increasing by about 1,000 people per week, which amounts to a staggering 5.5 percent of the entire Cambodian population.    Mr. Chairman, a significant proportion of these people have already been forcibly evicted, and while we don't have a precise nationwide figure for this population displacement, it is thought to run into the hundreds of thousands. The evictions themselves are often violent, with private security firms, police and the army using live ammunition, tear gas and bulldozers to drive out villagers who protect their homes with sticks and stones.    Residents have been shot or beaten, entire villages have been burned to the ground, and evictees are often sent to live in squalid resettlement camps.    Not surprisingly, the Cambodian Government claims that the economic land concessions they award to private businesses bring economic benefits to the local communities. But research by the U.N. and others suggests that, more often than not, they actually have the opposite effect. The way that these development projects are implemented leaves ordinary Cambodians with a loss of traditional livelihoods, with a lack of clean water and sanitation, with food shortages and malnutrition, and with crushing unemployment.    In fact, those who profit are a tiny group of ruling elite made up of senior members of the ruling party, senior members of state security forces, as well as the government-connected business elite.    Unfortunately, the Cambodian judicial system is part of the problem and not the solution. There is a decent legal framework to regulate land use in Cambodia, including the economic land concessions. The problem is that the laws are simply ignored both by the government and by the judiciary when there is money to be made. In fact, the ruling elite have relied heavily on corrupt and biased judges to implement the land grabs, intimidate the poor, and crush their opponents.    So no one really expects the Cambodian courts to be fair with the massive land grabbing and illegal displacements that have occurred over the last 15 years.    Mr. Chairman, it is widely accepted that the forced evictions were illegal in the sense that they breached Cambodian national laws, as well as international human rights conventions. But do they also violate international criminal law?    Well, as the lawyer for a group of Cambodian victims, I was asked to advise whether or not the land crimes have become so serious that a case could be brought before the International Criminal Court in the Hague. While land grabbing is not an international crime per se, forcible transfer of populations can be. It can be a crime against humanity if it is sufficiently widespread and part of a state policy.    After analyzing thousands of pages of reports and evidence, we found that when the mass evictions over the last 15 years are considered together, when they are looked at cumulatively, the situation meets all the legal elements of crimes against humanity.    So in October 2014, we filed a communication to the prosecutor of the ICC asking her to open an investigation, and we are now waiting to see if she accepts the case and moves it to the next stage.    Finally, Mr. Chairman, in my written submission I outlined three recommendations that I thought could help address the problems of land grabbing. First is the adoption of a rule of law accountability act for Cambodia, or even better perhaps is the adoption of the global Magnitsky Act and its application to Cambodia. I understand that there is a bill already being considered in the House and the Senate.    Secondly is increased funding and support for Cambodian NGOs who monitor the land grabbing.    And thirdly is the prohibition of U.S. funding or military training for Cambodian military units that take part in illegal forced evictions.    Mr. Chairman, there are few populations around the world who have suffered more mass atrocities and are more deserving of justice than the Cambodian people. At the very least, they deserve a stable home. Thank you very much.</t>
@@ -842,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,7 +895,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,3533 +917,4111 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s"/>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>50</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G79" t="s">
+        <v>36</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>50</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>50</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>115</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>118</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>121</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>124</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>124</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>124</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>124</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>124</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
       <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
       <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>118</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>25</v>
+      </c>
       <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>118</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G115" t="s">
+        <v>25</v>
+      </c>
       <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>118</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>25</v>
+      </c>
       <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>25</v>
+      </c>
       <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>118</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>25</v>
+      </c>
       <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>121</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G123" t="s">
+        <v>25</v>
+      </c>
       <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>121</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G125" t="s">
+        <v>25</v>
+      </c>
       <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>118</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>124</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>40</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>118</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>40</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>121</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>40</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>118</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>40</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>118</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>40</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G143" t="s">
+        <v>36</v>
+      </c>
       <c r="H143" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>124</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G145" t="s">
+        <v>36</v>
+      </c>
       <c r="H145" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>124</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G147" t="s">
+        <v>36</v>
+      </c>
       <c r="H147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>159</v>
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95991.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95991.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -122,6 +131,9 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rohrabacher</t>
@@ -887,7 +899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,7 +907,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,4108 +932,4392 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
       </c>
       <c r="I11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>50</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>43</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>54</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>50</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>54</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>50</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>54</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>50</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H77" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>50</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>54</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>50</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>54</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>50</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>54</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>50</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H86" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>43</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>50</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>54</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>115</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>119</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>118</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>122</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>121</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>125</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>124</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>128</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>124</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>128</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>124</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>128</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>124</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>128</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>124</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>128</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G109" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s">
-        <v>115</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>119</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G111" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H111" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s">
-        <v>118</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>122</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G113" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s">
-        <v>118</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>122</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G115" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H115" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s">
-        <v>118</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>122</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G117" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H117" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>118</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>122</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G119" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H119" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>118</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>122</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G121" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H121" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
-        <v>121</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>125</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G123" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H123" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I123" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s">
-        <v>121</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>125</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G125" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H125" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I125" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s">
-        <v>17</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
-        <v>118</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>122</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s">
-        <v>17</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s">
-        <v>124</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>128</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>40</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>44</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>118</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>122</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s">
-        <v>40</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>44</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s">
-        <v>121</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>125</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s">
-        <v>40</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>44</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s">
-        <v>118</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>122</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s">
-        <v>40</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>44</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s">
-        <v>118</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>122</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s">
-        <v>40</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>44</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I143" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J143" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s">
-        <v>124</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>128</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H145" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I145" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s">
-        <v>124</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>128</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H147" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I147" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>174</v>
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
